--- a/synthetic_esf_visual/invoices/MUT_0002_D000.xlsx
+++ b/synthetic_esf_visual/invoices/MUT_0002_D000.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>210779751685</t>
+          <t>077975168513</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>131999541398</t>
+          <t>199954139822</t>
         </is>
       </c>
     </row>
